--- a/datatest/Product Onboarding.xlsx
+++ b/datatest/Product Onboarding.xlsx
@@ -7,13 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="touchpoint benefit grouping" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="product ticket" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="filter" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="benefit" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="package title" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="terms and condition" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="product effective time" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="filter" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="product effective time" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="product ticket" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="terms and condition" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="touchpoint benefit grouping" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="package title" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="benefit" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,57 +435,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>main_benefit_renaming_id</t>
+          <t>product_name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>main_benefit_renaming_en</t>
+          <t>cd_main_id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>main_benefit_tab_icon_url</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>bonus_renaming_id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>bonus_renaming_en</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>bonus_tab_icon_url</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>about_renaming_id</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>about_renaming_en</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>about_tab_icon_url</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>about_package_desc_id</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>about_package_desc_en</t>
+          <t>service_id</t>
         </is>
       </c>
     </row>
@@ -497,57 +457,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benefit Utama</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Main Benefit</t>
-        </is>
-      </c>
+          <t>Xtra Combo Flex XXXL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://rinjani.myxl.xlaxiata.co.id/styles/medium/s3/media-xl/telco_4.png?itok=Ljy-vllD</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Bonus</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Bonus</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://rinjani.myxl.xlaxiata.co.id/styles/medium/s3/media-xl/redemption.png?itok=e4BHL8I0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Tentang</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>About</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://rinjani.myxl.xlaxiata.co.id/styles/medium/s3/media-xl/paket_0.png?itok=1vENfi-r</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Nikmati kuota internet 24 jam dengan tambahan kuota area, akses ke aplikasi WhatsApp &amp; LINE serta bebas pilih bonus Kuota Youtube / Kuota Utama / Langganan Vidio / akses ke aplikasi lainnya dengan batasan kuota.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Enjoy 24-hour quota with additional local quota, access to WhatsApp &amp; LINE and your choice of Bonus Main Quota / Vidio Subscription / Unlimited access to various applications (usage limitations apply).</t>
+          <t>8216631</t>
         </is>
       </c>
     </row>
@@ -559,45 +475,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benefit Utama</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Main Benefit</t>
-        </is>
-      </c>
+          <t>Kuota Circle 20GB</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://rinjani.myxl.xlaxiata.co.id/styles/medium/s3/media-xl/telco_4.png?itok=Ljy-vllD</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Tentang</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>About</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://rinjani.myxl.xlaxiata.co.id/styles/medium/s3/media-xl/paket_0.png?itok=1vENfi-r</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Kuota Circle adalah kuota utama yang dapat digunakan oleh semua anggota XL Circle-mu.</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Circle Quota is a main quota that can be used by all members of your XL Circle.</t>
+          <t>8110180</t>
         </is>
       </c>
     </row>
@@ -607,6 +491,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ref_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>product_effective_to</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>xcf xxxl</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2029-09-14 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>xcl circle 20gb</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2029-09-14 00:00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -713,13 +652,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,17 +674,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>product_name</t>
+          <t>tnc_id</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>cd_main_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>service_id</t>
+          <t>tnc_en</t>
         </is>
       </c>
     </row>
@@ -757,13 +691,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Xtra Combo Flex XXXL</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8216631</t>
+          <t>Syarat &amp; Ketentuan1. Paket berlaku untuk pelanggan yang sedang berlangganan paket Xtra Combo Flex2. Paket akan diperpanjang otomatis dengan harga normal di bulan berikut nya pada jam 00:00 WIB (Jika pulsa mencukupi)3. Kuota utama dan kuota area tidak akan terakumulasi pada saat perpanjangan atau pembelian paket Xtra Combo FLEX4. Kuota Unlimited Whatsapp &amp; LINE dapat digunakan setelah kuota utama habis5. Pelanggan dapat memilih bonus lainnya melalui menu Bonus pada halaman XL Store di myXL6. Kuota area hanya berlaku di kota-kota tertentu, cek list kota di xl.co.id/flex</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Terms &amp; Conditions1. The package is valid for Xtra Combo Flex subscriber2. Package will be automatically renewed to regular price in the next month (every 30 days) at 00:00 WIB (if customer have sufficient balance)3. Main kuota and area kuota will be reset by extending the package or purchase Xtra Combo Flex package4. Access to WhatsApp &amp; LINE applies after main quota runs out5. Subscriber can choose their bonus in the bonus center on XL Store page myXL6. Area quota can be used on selected cities. Check list of city by enter xl.co.id/flex</t>
         </is>
       </c>
     </row>
@@ -775,13 +708,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kuota Circle 20GB</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8110180</t>
+          <t>a. Kuota Circle dapat terus digunakan selama kuota tersedia dan pelanggan kartu SIM pelanggan dalam keadaan aktif
+b. Pembelian Kuota Circle tidak menambah masa aktif kartu SIM anggota XL Circle, kecuali Pengelola/Anggota yang membeli Kuota Circle.
+c. Pengelola/Anggota yang membeli Kuota Circle akan mendapatkan tambahan masa aktif kartu SIM maksimum 30hari dari tanggal pembelian.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>a. Circle Quota can be used as long as the quota is available and the customer’s SIM card remains active.
+b. Purchasing Circle Quota does not extend the validity period of the SIM card, except for the Manager/Member who made the purchase.
+c. The Manager/Member who purchases Circle Quota will receive a maximum 30-day extension on their SIM card validity from the date of purchase.</t>
         </is>
       </c>
     </row>
@@ -790,7 +726,355 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ref_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>main_benefit_renaming_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>main_benefit_renaming_en</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>main_benefit_tab_icon_url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>bonus_renaming_id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>bonus_renaming_en</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>bonus_tab_icon_url</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>about_renaming_id</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>about_renaming_en</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>about_tab_icon_url</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>about_package_desc_id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>about_package_desc_en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>xcf xxxl</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Benefit Utama</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Main Benefit</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://rinjani.myxl.xlaxiata.co.id/styles/medium/s3/media-xl/telco_4.png?itok=Ljy-vllD</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bonus</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bonus</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://rinjani.myxl.xlaxiata.co.id/styles/medium/s3/media-xl/redemption.png?itok=e4BHL8I0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tentang</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>About</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://rinjani.myxl.xlaxiata.co.id/styles/medium/s3/media-xl/paket_0.png?itok=1vENfi-r</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Nikmati kuota internet 24 jam dengan tambahan kuota area, akses ke aplikasi WhatsApp &amp; LINE serta bebas pilih bonus Kuota Youtube / Kuota Utama / Langganan Vidio / akses ke aplikasi lainnya dengan batasan kuota.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Enjoy 24-hour quota with additional local quota, access to WhatsApp &amp; LINE and your choice of Bonus Main Quota / Vidio Subscription / Unlimited access to various applications (usage limitations apply).</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>xcl circle 20gb</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Benefit Utama</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Main Benefit</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://rinjani.myxl.xlaxiata.co.id/styles/medium/s3/media-xl/telco_4.png?itok=Ljy-vllD</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tentang</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>About</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://rinjani.myxl.xlaxiata.co.id/styles/medium/s3/media-xl/paket_0.png?itok=1vENfi-r</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Kuota Circle adalah kuota utama yang dapat digunakan oleh semua anggota XL Circle-mu.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Circle Quota is a main quota that can be used by all members of your XL Circle.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ref_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name_at_store_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name_at_store_en</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dynamic_name_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>dynamic_name_en</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>image_display</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>dynamic_ribbon_id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>dynamic_ribbon_en</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ribbon_mode</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ribon_color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>xcf xxxl</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FLEX XXL - 80GB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FLEX XXL - 80GB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FLEX XXL - [QUOTAS]GB</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FLEX XXL - [QUOTAS]GB</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://rinjani.myxl.xlaxiata.co.id/media-xl/internet2x.png?VersionId=8Gs3AMkwato1Se2fe7t4oHEddRCtmcY2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>xcf l</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FLEX XXL - 70GB</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>xcl circle 20gb</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kuota Circle 20GB, 50rb</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Kuota Circle 20GB, 50rb</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://rinjani.myxl.xlaxiata.co.id/media-xl/internet2x.png?VersionId=8Gs3AMkwato1Se2fe7t4oHEddRCtmcY2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1007,288 +1291,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ref_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name_at_store_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name_at_store_en</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>dynamic_name_id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>dynamic_name_en</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>image_display</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>dynamic_ribbon_id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>dynamic_ribbon_en</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>ribbon_mode</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>ribon_color</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>xcf xxxl</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FLEX XXL - 80GB</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FLEX XXL - 80GB</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>FLEX XXL - [QUOTAS]GB</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FLEX XXL - [QUOTAS]GB</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://rinjani.myxl.xlaxiata.co.id/media-xl/internet2x.png?VersionId=8Gs3AMkwato1Se2fe7t4oHEddRCtmcY2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>xcf l</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>FLEX XXL - 70GB</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>xcl circle 20gb</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Kuota Circle 20GB, 50rb</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Kuota Circle 20GB, 50rb</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://rinjani.myxl.xlaxiata.co.id/media-xl/internet2x.png?VersionId=8Gs3AMkwato1Se2fe7t4oHEddRCtmcY2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ref_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tnc_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>tnc_en</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>xcf xxxl</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Syarat &amp; Ketentuan1. Paket berlaku untuk pelanggan yang sedang berlangganan paket Xtra Combo Flex2. Paket akan diperpanjang otomatis dengan harga normal di bulan berikut nya pada jam 00:00 WIB (Jika pulsa mencukupi)3. Kuota utama dan kuota area tidak akan terakumulasi pada saat perpanjangan atau pembelian paket Xtra Combo FLEX4. Kuota Unlimited Whatsapp &amp; LINE dapat digunakan setelah kuota utama habis5. Pelanggan dapat memilih bonus lainnya melalui menu Bonus pada halaman XL Store di myXL6. Kuota area hanya berlaku di kota-kota tertentu, cek list kota di xl.co.id/flex</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Terms &amp; Conditions1. The package is valid for Xtra Combo Flex subscriber2. Package will be automatically renewed to regular price in the next month (every 30 days) at 00:00 WIB (if customer have sufficient balance)3. Main kuota and area kuota will be reset by extending the package or purchase Xtra Combo Flex package4. Access to WhatsApp &amp; LINE applies after main quota runs out5. Subscriber can choose their bonus in the bonus center on XL Store page myXL6. Area quota can be used on selected cities. Check list of city by enter xl.co.id/flex</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>xcl circle 20gb</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>a. Kuota Circle dapat terus digunakan selama kuota tersedia dan pelanggan kartu SIM pelanggan dalam keadaan aktif
-b. Pembelian Kuota Circle tidak menambah masa aktif kartu SIM anggota XL Circle, kecuali Pengelola/Anggota yang membeli Kuota Circle.
-c. Pengelola/Anggota yang membeli Kuota Circle akan mendapatkan tambahan masa aktif kartu SIM maksimum 30hari dari tanggal pembelian.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>a. Circle Quota can be used as long as the quota is available and the customer’s SIM card remains active.
-b. Purchasing Circle Quota does not extend the validity period of the SIM card, except for the Manager/Member who made the purchase.
-c. The Manager/Member who purchases Circle Quota will receive a maximum 30-day extension on their SIM card validity from the date of purchase.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ref_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>product_effective_to</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>xcf xxxl</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2029-09-14 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>xcl circle 20gb</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2029-09-14 00:00:00</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>